--- a/mapping_schemes/east/SOM_RES.xlsx
+++ b/mapping_schemes/east/SOM_RES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/npaul/GEM/WIP/africa/data/Africa_Map/East/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB39FD61-6D3C-9549-ABAE-3337FA11CB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927CB32B-F15E-034E-B46F-C1C37D2EFA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14760" yWindow="460" windowWidth="13680" windowHeight="17540" activeTab="2" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
+    <workbookView xWindow="14760" yWindow="460" windowWidth="13680" windowHeight="17540" activeTab="1" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
   </bookViews>
   <sheets>
     <sheet name="Material_1" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="93">
   <si>
     <t>MATO</t>
   </si>
@@ -3504,10 +3504,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF06C8A-1AE4-2949-8A97-6266F0313480}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3556,7 +3556,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="20">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3570,7 +3570,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="2">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3589,27 +3589,27 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -3617,13 +3617,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -3631,13 +3631,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -3645,13 +3645,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -3659,16 +3659,16 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3679,10 +3679,10 @@
         <v>78</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3693,7 +3693,7 @@
         <v>78</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2">
         <v>0.3</v>
@@ -3707,35 +3707,35 @@
         <v>78</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -3743,13 +3743,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -3757,13 +3757,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -3771,29 +3771,37 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="3"/>
-      <c r="G20" s="19"/>
+      <c r="A20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="5"/>
       <c r="C21" s="3"/>
-      <c r="G21" s="10"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -3835,6 +3843,7 @@
       <c r="A28" s="10"/>
       <c r="B28" s="5"/>
       <c r="C28" s="3"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
@@ -3882,9 +3891,9 @@
       <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
@@ -3899,7 +3908,7 @@
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="3"/>
+      <c r="C41" s="5"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
@@ -3914,11 +3923,11 @@
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
@@ -3974,6 +3983,11 @@
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3985,7 +3999,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E33"/>
     </sheetView>
   </sheetViews>
